--- a/Code/Results/Cases/Case_6_60/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_60/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.035168786458735</v>
+        <v>1.035168786458734</v>
       </c>
       <c r="D2">
-        <v>1.051148304889746</v>
+        <v>1.051148304889745</v>
       </c>
       <c r="E2">
-        <v>1.044433840102237</v>
+        <v>1.044433840102236</v>
       </c>
       <c r="F2">
-        <v>1.055087674947054</v>
+        <v>1.055087674947053</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.062486001804844</v>
+        <v>1.062486001804843</v>
       </c>
       <c r="J2">
-        <v>1.05634618089421</v>
+        <v>1.056346180894208</v>
       </c>
       <c r="K2">
-        <v>1.06193824815353</v>
+        <v>1.061938248153529</v>
       </c>
       <c r="L2">
-        <v>1.055306995917617</v>
+        <v>1.055306995917616</v>
       </c>
       <c r="M2">
-        <v>1.06582941025618</v>
+        <v>1.065829410256179</v>
       </c>
       <c r="N2">
-        <v>1.05784631363568</v>
+        <v>1.057846313635678</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.044645345767908</v>
+        <v>1.04464534576791</v>
       </c>
       <c r="D3">
-        <v>1.058771422994922</v>
+        <v>1.058771422994923</v>
       </c>
       <c r="E3">
-        <v>1.05277020320637</v>
+        <v>1.052770203206371</v>
       </c>
       <c r="F3">
-        <v>1.063596969078022</v>
+        <v>1.063596969078023</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.065881133241396</v>
+        <v>1.065881133241397</v>
       </c>
       <c r="J3">
-        <v>1.063988742161602</v>
+        <v>1.063988742161603</v>
       </c>
       <c r="K3">
-        <v>1.068703732849793</v>
+        <v>1.068703732849794</v>
       </c>
       <c r="L3">
-        <v>1.062769629168356</v>
+        <v>1.062769629168358</v>
       </c>
       <c r="M3">
-        <v>1.073475986244167</v>
+        <v>1.073475986244168</v>
       </c>
       <c r="N3">
-        <v>1.065499728216686</v>
+        <v>1.065499728216688</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,16 +503,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.050558325396448</v>
+        <v>1.050558325396449</v>
       </c>
       <c r="D4">
-        <v>1.063529667821747</v>
+        <v>1.063529667821748</v>
       </c>
       <c r="E4">
-        <v>1.057973544009867</v>
+        <v>1.057973544009868</v>
       </c>
       <c r="F4">
-        <v>1.068911136850011</v>
+        <v>1.068911136850012</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -521,19 +521,19 @@
         <v>1.067983237950092</v>
       </c>
       <c r="J4">
-        <v>1.068751566266985</v>
+        <v>1.068751566266986</v>
       </c>
       <c r="K4">
-        <v>1.072917355056879</v>
+        <v>1.07291735505688</v>
       </c>
       <c r="L4">
-        <v>1.067419223590179</v>
+        <v>1.06741922359018</v>
       </c>
       <c r="M4">
-        <v>1.078243355477669</v>
+        <v>1.07824335547767</v>
       </c>
       <c r="N4">
-        <v>1.070269316078603</v>
+        <v>1.070269316078604</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.052995298147356</v>
+        <v>1.052995298147354</v>
       </c>
       <c r="D5">
-        <v>1.065491009889959</v>
+        <v>1.065491009889958</v>
       </c>
       <c r="E5">
-        <v>1.06011837903414</v>
+        <v>1.060118379034138</v>
       </c>
       <c r="F5">
-        <v>1.071102331627735</v>
+        <v>1.071102331627734</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.068845610865425</v>
+        <v>1.068845610865424</v>
       </c>
       <c r="J5">
-        <v>1.070713046384586</v>
+        <v>1.070713046384585</v>
       </c>
       <c r="K5">
-        <v>1.074651998564218</v>
+        <v>1.074651998564217</v>
       </c>
       <c r="L5">
-        <v>1.069333802378106</v>
+        <v>1.069333802378104</v>
       </c>
       <c r="M5">
-        <v>1.080207175769166</v>
+        <v>1.080207175769164</v>
       </c>
       <c r="N5">
-        <v>1.072233581722955</v>
+        <v>1.072233581722954</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.053401709533346</v>
+        <v>1.053401709533348</v>
       </c>
       <c r="D6">
-        <v>1.065818113675275</v>
+        <v>1.065818113675276</v>
       </c>
       <c r="E6">
-        <v>1.060476087791731</v>
+        <v>1.060476087791733</v>
       </c>
       <c r="F6">
-        <v>1.071467811460981</v>
+        <v>1.071467811460983</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.068989191277095</v>
+        <v>1.068989191277096</v>
       </c>
       <c r="J6">
-        <v>1.071040072010093</v>
+        <v>1.071040072010095</v>
       </c>
       <c r="K6">
-        <v>1.074941165498349</v>
+        <v>1.074941165498351</v>
       </c>
       <c r="L6">
-        <v>1.069652992396487</v>
+        <v>1.069652992396489</v>
       </c>
       <c r="M6">
-        <v>1.080534618518016</v>
+        <v>1.080534618518018</v>
       </c>
       <c r="N6">
-        <v>1.07256107176236</v>
+        <v>1.072561071762363</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -635,7 +635,7 @@
         <v>1.058002367201437</v>
       </c>
       <c r="F7">
-        <v>1.068940580383478</v>
+        <v>1.068940580383477</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -644,16 +644,16 @@
         <v>1.067994843253496</v>
       </c>
       <c r="J7">
-        <v>1.068777932459499</v>
+        <v>1.068777932459498</v>
       </c>
       <c r="K7">
-        <v>1.072940674763626</v>
+        <v>1.072940674763625</v>
       </c>
       <c r="L7">
-        <v>1.067444960412494</v>
+        <v>1.067444960412493</v>
       </c>
       <c r="M7">
-        <v>1.07826975129754</v>
+        <v>1.078269751297539</v>
       </c>
       <c r="N7">
         <v>1.070295719714133</v>
@@ -691,7 +691,7 @@
         <v>1.064260258752078</v>
       </c>
       <c r="L8">
-        <v>1.057867918613807</v>
+        <v>1.057867918613806</v>
       </c>
       <c r="M8">
         <v>1.068452773444495</v>
@@ -711,13 +711,13 @@
         <v>1.015108765309754</v>
       </c>
       <c r="D9">
-        <v>1.035028585504385</v>
+        <v>1.035028585504384</v>
       </c>
       <c r="E9">
         <v>1.026802817656369</v>
       </c>
       <c r="F9">
-        <v>1.037108174754839</v>
+        <v>1.037108174754838</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -726,7 +726,7 @@
         <v>1.055209998726677</v>
       </c>
       <c r="J9">
-        <v>1.040139047819685</v>
+        <v>1.040139047819684</v>
       </c>
       <c r="K9">
         <v>1.047577809260698</v>
@@ -735,10 +735,10 @@
         <v>1.039475506136864</v>
       </c>
       <c r="M9">
-        <v>1.049626579003486</v>
+        <v>1.049626579003485</v>
       </c>
       <c r="N9">
-        <v>1.041616164573205</v>
+        <v>1.041616164573204</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9980132163948947</v>
+        <v>0.9980132163948928</v>
       </c>
       <c r="D10">
-        <v>1.021316294666313</v>
+        <v>1.021316294666311</v>
       </c>
       <c r="E10">
-        <v>1.011798718578984</v>
+        <v>1.011798718578983</v>
       </c>
       <c r="F10">
-        <v>1.021824260145303</v>
+        <v>1.021824260145302</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.048933754691927</v>
+        <v>1.048933754691926</v>
       </c>
       <c r="J10">
-        <v>1.026305883355816</v>
+        <v>1.026305883355814</v>
       </c>
       <c r="K10">
-        <v>1.035311055116367</v>
+        <v>1.035311055116366</v>
       </c>
       <c r="L10">
-        <v>1.02595816187013</v>
+        <v>1.025958161870129</v>
       </c>
       <c r="M10">
-        <v>1.035810342653709</v>
+        <v>1.035810342653707</v>
       </c>
       <c r="N10">
-        <v>1.027763355429111</v>
+        <v>1.02776335542911</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,10 +790,10 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9901567329190689</v>
+        <v>0.9901567329190685</v>
       </c>
       <c r="D11">
-        <v>1.015024353910762</v>
+        <v>1.015024353910761</v>
       </c>
       <c r="E11">
         <v>1.004911364924815</v>
@@ -808,19 +808,19 @@
         <v>1.046031167255159</v>
       </c>
       <c r="J11">
-        <v>1.01994481508385</v>
+        <v>1.019944815083849</v>
       </c>
       <c r="K11">
-        <v>1.029668388043607</v>
+        <v>1.029668388043606</v>
       </c>
       <c r="L11">
-        <v>1.019741250670865</v>
+        <v>1.019741250670864</v>
       </c>
       <c r="M11">
-        <v>1.029461065271195</v>
+        <v>1.029461065271194</v>
       </c>
       <c r="N11">
-        <v>1.021393253710575</v>
+        <v>1.021393253710574</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,16 +831,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9871613643053733</v>
+        <v>0.9871613643053723</v>
       </c>
       <c r="D12">
-        <v>1.012627282006546</v>
+        <v>1.012627282006545</v>
       </c>
       <c r="E12">
-        <v>1.002286946316719</v>
+        <v>1.002286946316718</v>
       </c>
       <c r="F12">
-        <v>1.012142391386892</v>
+        <v>1.012142391386891</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -849,19 +849,19 @@
         <v>1.044921947893173</v>
       </c>
       <c r="J12">
-        <v>1.017519195384058</v>
+        <v>1.017519195384057</v>
       </c>
       <c r="K12">
-        <v>1.027516496850861</v>
+        <v>1.02751649685086</v>
       </c>
       <c r="L12">
-        <v>1.017370462810953</v>
+        <v>1.017370462810952</v>
       </c>
       <c r="M12">
-        <v>1.027040601934457</v>
+        <v>1.027040601934456</v>
       </c>
       <c r="N12">
-        <v>1.018964189352586</v>
+        <v>1.018964189352585</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9878075325763468</v>
+        <v>0.9878075325763492</v>
       </c>
       <c r="D13">
-        <v>1.013144297197582</v>
+        <v>1.013144297197585</v>
       </c>
       <c r="E13">
-        <v>1.002853021919104</v>
+        <v>1.002853021919107</v>
       </c>
       <c r="F13">
-        <v>1.012718438717755</v>
+        <v>1.012718438717758</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.045161344618173</v>
+        <v>1.045161344618175</v>
       </c>
       <c r="J13">
-        <v>1.018042470473298</v>
+        <v>1.018042470473301</v>
       </c>
       <c r="K13">
-        <v>1.027980729320898</v>
+        <v>1.027980729320901</v>
       </c>
       <c r="L13">
-        <v>1.017881914944527</v>
+        <v>1.017881914944529</v>
       </c>
       <c r="M13">
-        <v>1.027562733849148</v>
+        <v>1.02756273384915</v>
       </c>
       <c r="N13">
-        <v>1.019488207552474</v>
+        <v>1.019488207552477</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C14">
-        <v>0.9899107656396104</v>
+        <v>0.9899107656396131</v>
       </c>
       <c r="D14">
-        <v>1.014827477783949</v>
+        <v>1.014827477783951</v>
       </c>
       <c r="E14">
-        <v>1.004695827361993</v>
+        <v>1.004695827361995</v>
       </c>
       <c r="F14">
-        <v>1.014593837078527</v>
+        <v>1.014593837078529</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.045940133822208</v>
+        <v>1.045940133822209</v>
       </c>
       <c r="J14">
-        <v>1.019745640024599</v>
+        <v>1.019745640024602</v>
       </c>
       <c r="K14">
-        <v>1.029491693555445</v>
+        <v>1.029491693555447</v>
       </c>
       <c r="L14">
-        <v>1.019546580677178</v>
+        <v>1.01954658067718</v>
       </c>
       <c r="M14">
-        <v>1.029262299893466</v>
+        <v>1.029262299893468</v>
       </c>
       <c r="N14">
-        <v>1.021193795799894</v>
+        <v>1.021193795799896</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.991196122450076</v>
+        <v>0.9911961224500799</v>
       </c>
       <c r="D15">
-        <v>1.015856372829175</v>
+        <v>1.015856372829178</v>
       </c>
       <c r="E15">
-        <v>1.0058222276771</v>
+        <v>1.005822227677103</v>
       </c>
       <c r="F15">
-        <v>1.015740258800086</v>
+        <v>1.01574025880009</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.046415745957844</v>
+        <v>1.046415745957845</v>
       </c>
       <c r="J15">
-        <v>1.02078645887491</v>
+        <v>1.020786458874914</v>
       </c>
       <c r="K15">
-        <v>1.030415028615619</v>
+        <v>1.030415028615622</v>
       </c>
       <c r="L15">
-        <v>1.020563852171858</v>
+        <v>1.020563852171861</v>
       </c>
       <c r="M15">
-        <v>1.030301005011323</v>
+        <v>1.030301005011326</v>
       </c>
       <c r="N15">
-        <v>1.022236092732356</v>
+        <v>1.022236092732359</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9985243364041764</v>
+        <v>0.9985243364041795</v>
       </c>
       <c r="D16">
-        <v>1.02172585687935</v>
+        <v>1.021725856879352</v>
       </c>
       <c r="E16">
-        <v>1.012246974537877</v>
+        <v>1.012246974537879</v>
       </c>
       <c r="F16">
-        <v>1.022280667807484</v>
+        <v>1.022280667807487</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.049122226560179</v>
+        <v>1.04912222656018</v>
       </c>
       <c r="J16">
-        <v>1.026719651462678</v>
+        <v>1.026719651462681</v>
       </c>
       <c r="K16">
-        <v>1.035678060074688</v>
+        <v>1.03567806007469</v>
       </c>
       <c r="L16">
-        <v>1.026362532744042</v>
+        <v>1.026362532744045</v>
       </c>
       <c r="M16">
-        <v>1.036223430797792</v>
+        <v>1.036223430797795</v>
       </c>
       <c r="N16">
-        <v>1.028177711134145</v>
+        <v>1.028177711134148</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1042,7 +1042,7 @@
         <v>1.025308366881913</v>
       </c>
       <c r="E17">
-        <v>1.016167635779314</v>
+        <v>1.016167635779313</v>
       </c>
       <c r="F17">
         <v>1.026273162013577</v>
@@ -1051,13 +1051,13 @@
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.050768279955203</v>
+        <v>1.050768279955202</v>
       </c>
       <c r="J17">
         <v>1.030337404689163</v>
       </c>
       <c r="K17">
-        <v>1.038886737794055</v>
+        <v>1.038886737794054</v>
       </c>
       <c r="L17">
         <v>1.029898004275189</v>
@@ -1066,7 +1066,7 @@
         <v>1.039835692858321</v>
       </c>
       <c r="N17">
-        <v>1.031800601985174</v>
+        <v>1.031800601985173</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.00555762241413</v>
+        <v>1.005557622414127</v>
       </c>
       <c r="D18">
-        <v>1.027364299603858</v>
+        <v>1.027364299603855</v>
       </c>
       <c r="E18">
-        <v>1.018417386692811</v>
+        <v>1.018417386692809</v>
       </c>
       <c r="F18">
-        <v>1.028564570722222</v>
+        <v>1.028564570722219</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.051710802379228</v>
+        <v>1.051710802379227</v>
       </c>
       <c r="J18">
-        <v>1.032412301255281</v>
+        <v>1.032412301255279</v>
       </c>
       <c r="K18">
-        <v>1.040726834757765</v>
+        <v>1.040726834757762</v>
       </c>
       <c r="L18">
-        <v>1.031925608439125</v>
+        <v>1.031925608439122</v>
       </c>
       <c r="M18">
-        <v>1.041907808646554</v>
+        <v>1.041907808646551</v>
       </c>
       <c r="N18">
-        <v>1.033878445142411</v>
+        <v>1.033878445142407</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,16 +1118,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.006424753457461</v>
+        <v>1.006424753457463</v>
       </c>
       <c r="D19">
-        <v>1.028059790629157</v>
+        <v>1.028059790629158</v>
       </c>
       <c r="E19">
-        <v>1.019178405709885</v>
+        <v>1.019178405709887</v>
       </c>
       <c r="F19">
-        <v>1.029339754654932</v>
+        <v>1.029339754654934</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1136,19 +1136,19 @@
         <v>1.052029284466913</v>
       </c>
       <c r="J19">
-        <v>1.033113997740677</v>
+        <v>1.033113997740678</v>
       </c>
       <c r="K19">
-        <v>1.041349093055467</v>
+        <v>1.041349093055469</v>
       </c>
       <c r="L19">
-        <v>1.032611293654096</v>
+        <v>1.032611293654098</v>
       </c>
       <c r="M19">
-        <v>1.042608625687039</v>
+        <v>1.042608625687041</v>
       </c>
       <c r="N19">
-        <v>1.0345811381173</v>
+        <v>1.034581138117302</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.002518778851474</v>
+        <v>1.002518778851479</v>
       </c>
       <c r="D20">
-        <v>1.024927526296818</v>
+        <v>1.024927526296822</v>
       </c>
       <c r="E20">
-        <v>1.015750873574415</v>
+        <v>1.015750873574418</v>
       </c>
       <c r="F20">
-        <v>1.025848718139458</v>
+        <v>1.025848718139462</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.050593515546392</v>
+        <v>1.050593515546394</v>
       </c>
       <c r="J20">
-        <v>1.02995294989888</v>
+        <v>1.029952949898883</v>
       </c>
       <c r="K20">
-        <v>1.038545773481405</v>
+        <v>1.038545773481408</v>
       </c>
       <c r="L20">
-        <v>1.029522303871913</v>
+        <v>1.029522303871917</v>
       </c>
       <c r="M20">
-        <v>1.039451782858877</v>
+        <v>1.039451782858881</v>
       </c>
       <c r="N20">
-        <v>1.03141560122499</v>
+        <v>1.031415601224994</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9892936248996536</v>
+        <v>0.9892936248996544</v>
       </c>
       <c r="D21">
-        <v>1.014333538608226</v>
+        <v>1.014333538608227</v>
       </c>
       <c r="E21">
-        <v>1.00415506025211</v>
+        <v>1.004155060252111</v>
       </c>
       <c r="F21">
-        <v>1.014043484819242</v>
+        <v>1.014043484819243</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.045711686927545</v>
+        <v>1.045711686927546</v>
       </c>
       <c r="J21">
-        <v>1.019245897006593</v>
+        <v>1.019245897006594</v>
       </c>
       <c r="K21">
         <v>1.029048352558253</v>
       </c>
       <c r="L21">
-        <v>1.019058139020126</v>
+        <v>1.019058139020127</v>
       </c>
       <c r="M21">
-        <v>1.028763595603581</v>
+        <v>1.028763595603582</v>
       </c>
       <c r="N21">
-        <v>1.020693343089481</v>
+        <v>1.020693343089482</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.980526504041207</v>
+        <v>0.9805265040412083</v>
       </c>
       <c r="D22">
-        <v>1.007321427601819</v>
+        <v>1.00732142760182</v>
       </c>
       <c r="E22">
-        <v>0.9964767878257177</v>
+        <v>0.9964767878257189</v>
       </c>
       <c r="F22">
-        <v>1.006230960884411</v>
+        <v>1.006230960884412</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.042460422964047</v>
+        <v>1.042460422964048</v>
       </c>
       <c r="J22">
-        <v>1.012145858201197</v>
+        <v>1.012145858201198</v>
       </c>
       <c r="K22">
-        <v>1.022749227599049</v>
+        <v>1.02274922759905</v>
       </c>
       <c r="L22">
-        <v>1.012118364838479</v>
+        <v>1.012118364838481</v>
       </c>
       <c r="M22">
-        <v>1.021679983636196</v>
+        <v>1.021679983636197</v>
       </c>
       <c r="N22">
-        <v>1.013583221414595</v>
+        <v>1.013583221414596</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,16 +1282,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9852204033172958</v>
+        <v>0.9852204033172948</v>
       </c>
       <c r="D23">
-        <v>1.011074564000998</v>
+        <v>1.011074564000997</v>
       </c>
       <c r="E23">
-        <v>1.000586804393551</v>
+        <v>1.00058680439355</v>
       </c>
       <c r="F23">
-        <v>1.01041241334604</v>
+        <v>1.010412413346039</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1300,16 +1300,16 @@
         <v>1.044202484307221</v>
       </c>
       <c r="J23">
-        <v>1.015947339442892</v>
+        <v>1.015947339442891</v>
       </c>
       <c r="K23">
         <v>1.026121972604762</v>
       </c>
       <c r="L23">
-        <v>1.01583410333706</v>
+        <v>1.015834103337059</v>
       </c>
       <c r="M23">
-        <v>1.025472281821397</v>
+        <v>1.025472281821396</v>
       </c>
       <c r="N23">
         <v>1.017390101195689</v>
@@ -1323,31 +1323,31 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.002733548208412</v>
+        <v>1.002733548208411</v>
       </c>
       <c r="D24">
         <v>1.025099715368394</v>
       </c>
       <c r="E24">
-        <v>1.015939304591456</v>
+        <v>1.015939304591455</v>
       </c>
       <c r="F24">
-        <v>1.026040620913283</v>
+        <v>1.026040620913282</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.050672538185992</v>
+        <v>1.050672538185991</v>
       </c>
       <c r="J24">
         <v>1.030126776971384</v>
       </c>
       <c r="K24">
-        <v>1.038699937375944</v>
+        <v>1.038699937375943</v>
       </c>
       <c r="L24">
-        <v>1.029692173059598</v>
+        <v>1.029692173059597</v>
       </c>
       <c r="M24">
         <v>1.039625362467071</v>
@@ -1364,16 +1364,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.021384081251975</v>
+        <v>1.021384081251976</v>
       </c>
       <c r="D25">
-        <v>1.0400682929103</v>
+        <v>1.040068292910301</v>
       </c>
       <c r="E25">
         <v>1.032315684430876</v>
       </c>
       <c r="F25">
-        <v>1.042727612253603</v>
+        <v>1.042727612253604</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1382,19 +1382,19 @@
         <v>1.05749767692897</v>
       </c>
       <c r="J25">
-        <v>1.045212611450644</v>
+        <v>1.045212611450645</v>
       </c>
       <c r="K25">
-        <v>1.052074886499748</v>
+        <v>1.052074886499749</v>
       </c>
       <c r="L25">
-        <v>1.044432229562563</v>
+        <v>1.044432229562564</v>
       </c>
       <c r="M25">
-        <v>1.054696965398476</v>
+        <v>1.054696965398477</v>
       </c>
       <c r="N25">
-        <v>1.046696933246467</v>
+        <v>1.046696933246468</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_60/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_60/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,46 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.035168786458734</v>
+        <v>1.016188484332295</v>
       </c>
       <c r="D2">
-        <v>1.051148304889745</v>
+        <v>1.035553015975587</v>
       </c>
       <c r="E2">
-        <v>1.044433840102236</v>
+        <v>1.029715193747434</v>
       </c>
       <c r="F2">
-        <v>1.055087674947053</v>
+        <v>1.039140419821046</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.062486001804843</v>
+        <v>1.054563630034579</v>
       </c>
       <c r="J2">
-        <v>1.056346180894208</v>
+        <v>1.037895551321537</v>
       </c>
       <c r="K2">
-        <v>1.061938248153529</v>
+        <v>1.046538302351443</v>
       </c>
       <c r="L2">
-        <v>1.055306995917616</v>
+        <v>1.0407755074581</v>
       </c>
       <c r="M2">
-        <v>1.065829410256179</v>
+        <v>1.05008012313424</v>
       </c>
       <c r="N2">
-        <v>1.057846313635678</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.016081476877538</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.043976882266701</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +480,46 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.04464534576791</v>
+        <v>1.021197615501015</v>
       </c>
       <c r="D3">
-        <v>1.058771422994923</v>
+        <v>1.039091684626841</v>
       </c>
       <c r="E3">
-        <v>1.052770203206371</v>
+        <v>1.033840895005494</v>
       </c>
       <c r="F3">
-        <v>1.063596969078023</v>
+        <v>1.043408474410202</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.065881133241397</v>
+        <v>1.055873070161192</v>
       </c>
       <c r="J3">
-        <v>1.063988742161603</v>
+        <v>1.041126631451526</v>
       </c>
       <c r="K3">
-        <v>1.068703732849794</v>
+        <v>1.049247668040789</v>
       </c>
       <c r="L3">
-        <v>1.062769629168358</v>
+        <v>1.04405833823893</v>
       </c>
       <c r="M3">
-        <v>1.073475986244168</v>
+        <v>1.053514502615523</v>
       </c>
       <c r="N3">
-        <v>1.065499728216688</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.017192732344124</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.045889970510787</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +527,46 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.050558325396449</v>
+        <v>1.024371457141378</v>
       </c>
       <c r="D4">
-        <v>1.063529667821748</v>
+        <v>1.041335908765133</v>
       </c>
       <c r="E4">
-        <v>1.057973544009868</v>
+        <v>1.036460911544774</v>
       </c>
       <c r="F4">
-        <v>1.068911136850012</v>
+        <v>1.046118348234319</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.067983237950092</v>
+        <v>1.056688789313076</v>
       </c>
       <c r="J4">
-        <v>1.068751566266986</v>
+        <v>1.043171636775156</v>
       </c>
       <c r="K4">
-        <v>1.07291735505688</v>
+        <v>1.050959785482911</v>
       </c>
       <c r="L4">
-        <v>1.06741922359018</v>
+        <v>1.046138333467816</v>
       </c>
       <c r="M4">
-        <v>1.07824335547767</v>
+        <v>1.05569029106146</v>
       </c>
       <c r="N4">
-        <v>1.070269316078604</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.017895949347126</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.047101454151108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +574,46 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.052995298147354</v>
+        <v>1.025695212660325</v>
       </c>
       <c r="D5">
-        <v>1.065491009889958</v>
+        <v>1.042274101628514</v>
       </c>
       <c r="E5">
-        <v>1.060118379034138</v>
+        <v>1.037555814442951</v>
       </c>
       <c r="F5">
-        <v>1.071102331627734</v>
+        <v>1.047250668028557</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.068845610865424</v>
+        <v>1.057027003890792</v>
       </c>
       <c r="J5">
-        <v>1.070713046384585</v>
+        <v>1.044025655123235</v>
       </c>
       <c r="K5">
-        <v>1.074651998564217</v>
+        <v>1.051675246239779</v>
       </c>
       <c r="L5">
-        <v>1.069333802378104</v>
+        <v>1.04700737451432</v>
       </c>
       <c r="M5">
-        <v>1.080207175769164</v>
+        <v>1.056599239276312</v>
       </c>
       <c r="N5">
-        <v>1.072233581722954</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.018190527721934</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.047614434859655</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +621,46 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.053401709533348</v>
+        <v>1.025922653562948</v>
       </c>
       <c r="D6">
-        <v>1.065818113675276</v>
+        <v>1.042437414800786</v>
       </c>
       <c r="E6">
-        <v>1.060476087791733</v>
+        <v>1.037744941001392</v>
       </c>
       <c r="F6">
-        <v>1.071467811460983</v>
+        <v>1.047446245879568</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.068989191277096</v>
+        <v>1.057086617352349</v>
       </c>
       <c r="J6">
-        <v>1.071040072010095</v>
+        <v>1.044174368264453</v>
       </c>
       <c r="K6">
-        <v>1.074941165498351</v>
+        <v>1.051801152649759</v>
       </c>
       <c r="L6">
-        <v>1.069652992396489</v>
+        <v>1.047158583868204</v>
       </c>
       <c r="M6">
-        <v>1.080534618518018</v>
+        <v>1.05675731709543</v>
       </c>
       <c r="N6">
-        <v>1.072561071762363</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.018242964621706</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.047712114607441</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +668,46 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.050591075814115</v>
+        <v>1.024405558565596</v>
       </c>
       <c r="D7">
-        <v>1.063556025306182</v>
+        <v>1.041365662467212</v>
       </c>
       <c r="E7">
-        <v>1.058002367201437</v>
+        <v>1.036491617368286</v>
       </c>
       <c r="F7">
-        <v>1.068940580383477</v>
+        <v>1.046150060436209</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.067994843253496</v>
+        <v>1.056702076087062</v>
       </c>
       <c r="J7">
-        <v>1.068777932459498</v>
+        <v>1.043199050538357</v>
       </c>
       <c r="K7">
-        <v>1.072940674763625</v>
+        <v>1.050986371563074</v>
       </c>
       <c r="L7">
-        <v>1.067444960412493</v>
+        <v>1.046165839577824</v>
       </c>
       <c r="M7">
-        <v>1.078269751297539</v>
+        <v>1.055718835386139</v>
       </c>
       <c r="N7">
-        <v>1.070295719714133</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.017908523208294</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.047140166910565</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +715,46 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.038419058818051</v>
+        <v>1.017916252841121</v>
       </c>
       <c r="D8">
-        <v>1.053762428042023</v>
+        <v>1.036779955553114</v>
       </c>
       <c r="E8">
-        <v>1.047292602802583</v>
+        <v>1.031140228985278</v>
       </c>
       <c r="F8">
-        <v>1.058005117778154</v>
+        <v>1.040614536185921</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.063653876534043</v>
+        <v>1.055023665831972</v>
       </c>
       <c r="J8">
-        <v>1.058968614221305</v>
+        <v>1.039017207077375</v>
       </c>
       <c r="K8">
-        <v>1.064260258752078</v>
+        <v>1.047483741593926</v>
       </c>
       <c r="L8">
-        <v>1.057867918613806</v>
+        <v>1.041914281395799</v>
       </c>
       <c r="M8">
-        <v>1.068452773444495</v>
+        <v>1.051271087573011</v>
       </c>
       <c r="N8">
-        <v>1.060472471118897</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.016471373938729</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.044668105786563</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +762,46 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.015108765309754</v>
+        <v>1.005908844277714</v>
       </c>
       <c r="D9">
-        <v>1.035028585504384</v>
+        <v>1.02830572561378</v>
       </c>
       <c r="E9">
-        <v>1.026802817656369</v>
+        <v>1.021283893485829</v>
       </c>
       <c r="F9">
-        <v>1.037108174754838</v>
+        <v>1.030415118971802</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.055209998726677</v>
+        <v>1.051802124951301</v>
       </c>
       <c r="J9">
-        <v>1.040139047819684</v>
+        <v>1.031254657704076</v>
       </c>
       <c r="K9">
-        <v>1.047577809260698</v>
+        <v>1.040955668345667</v>
       </c>
       <c r="L9">
-        <v>1.039475506136864</v>
+        <v>1.03404084097064</v>
       </c>
       <c r="M9">
-        <v>1.049626579003485</v>
+        <v>1.043033279576963</v>
       </c>
       <c r="N9">
-        <v>1.041616164573204</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.013797639655239</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.040049207624225</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,81 +809,93 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9980132163948928</v>
+        <v>0.9974978207731742</v>
       </c>
       <c r="D10">
-        <v>1.021316294666311</v>
+        <v>1.022389481792463</v>
       </c>
       <c r="E10">
-        <v>1.011798718578983</v>
+        <v>1.014418281803506</v>
       </c>
       <c r="F10">
-        <v>1.021824260145302</v>
+        <v>1.023307560837864</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.048933754691926</v>
+        <v>1.049476833472444</v>
       </c>
       <c r="J10">
-        <v>1.026305883355814</v>
+        <v>1.025811066899626</v>
       </c>
       <c r="K10">
-        <v>1.035311055116366</v>
+        <v>1.036365921301806</v>
       </c>
       <c r="L10">
-        <v>1.025958161870129</v>
+        <v>1.028531999730957</v>
       </c>
       <c r="M10">
-        <v>1.035810342653707</v>
+        <v>1.037268366717317</v>
       </c>
       <c r="N10">
-        <v>1.02776335542911</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.011924115788083</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.036820734121441</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C11">
-        <v>0.9901567329190685</v>
+        <v>0.9937689755514031</v>
       </c>
       <c r="D11">
-        <v>1.015024353910761</v>
+        <v>1.01977841213469</v>
       </c>
       <c r="E11">
-        <v>1.004911364924815</v>
+        <v>1.011388105100432</v>
       </c>
       <c r="F11">
-        <v>1.014813199905894</v>
+        <v>1.020169211424767</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.046031167255159</v>
+        <v>1.048435111518931</v>
       </c>
       <c r="J11">
-        <v>1.019944815083849</v>
+        <v>1.023403289680952</v>
       </c>
       <c r="K11">
-        <v>1.029668388043606</v>
+        <v>1.034336732957154</v>
       </c>
       <c r="L11">
-        <v>1.019741250670864</v>
+        <v>1.026098407213081</v>
       </c>
       <c r="M11">
-        <v>1.029461065271194</v>
+        <v>1.034720532481164</v>
       </c>
       <c r="N11">
-        <v>1.021393253710574</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.011100487995297</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.035418811178463</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +903,46 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9871613643053723</v>
+        <v>0.9923547667539624</v>
       </c>
       <c r="D12">
-        <v>1.012627282006545</v>
+        <v>1.018785399315952</v>
       </c>
       <c r="E12">
-        <v>1.002286946316718</v>
+        <v>1.010238384264732</v>
       </c>
       <c r="F12">
-        <v>1.012142391386891</v>
+        <v>1.018978710927511</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044921947893173</v>
+        <v>1.048034988980562</v>
       </c>
       <c r="J12">
-        <v>1.017519195384057</v>
+        <v>1.022486248322688</v>
       </c>
       <c r="K12">
-        <v>1.02751649685086</v>
+        <v>1.033561338261885</v>
       </c>
       <c r="L12">
-        <v>1.017370462810952</v>
+        <v>1.025172027002769</v>
       </c>
       <c r="M12">
-        <v>1.027040601934456</v>
+        <v>1.033751122838958</v>
       </c>
       <c r="N12">
-        <v>1.018964189352585</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.01078417258575</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.03487058236172</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,81 +950,93 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9878075325763492</v>
+        <v>0.9926565623049636</v>
       </c>
       <c r="D13">
-        <v>1.013144297197585</v>
+        <v>1.018996566075681</v>
       </c>
       <c r="E13">
-        <v>1.002853021919107</v>
+        <v>1.010483258706274</v>
       </c>
       <c r="F13">
-        <v>1.012718438717758</v>
+        <v>1.01923235305512</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.045161344618175</v>
+        <v>1.048119953728805</v>
       </c>
       <c r="J13">
-        <v>1.018042470473301</v>
+        <v>1.022681223224776</v>
       </c>
       <c r="K13">
-        <v>1.027980729320901</v>
+        <v>1.033725808674514</v>
       </c>
       <c r="L13">
-        <v>1.017881914944529</v>
+        <v>1.025368965737937</v>
       </c>
       <c r="M13">
-        <v>1.02756273384915</v>
+        <v>1.033957310565653</v>
       </c>
       <c r="N13">
-        <v>1.019488207552477</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.010850896869948</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.034984375480448</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9899107656396131</v>
+        <v>0.9936514314313912</v>
       </c>
       <c r="D14">
-        <v>1.014827477783951</v>
+        <v>1.019695556777632</v>
       </c>
       <c r="E14">
-        <v>1.004695827361995</v>
+        <v>1.011292338714025</v>
       </c>
       <c r="F14">
-        <v>1.014593837078529</v>
+        <v>1.020070082709359</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.045940133822209</v>
+        <v>1.048401676473668</v>
       </c>
       <c r="J14">
-        <v>1.019745640024602</v>
+        <v>1.023326759481319</v>
       </c>
       <c r="K14">
-        <v>1.029491693555447</v>
+        <v>1.034271857407549</v>
       </c>
       <c r="L14">
-        <v>1.01954658067718</v>
+        <v>1.026021088301569</v>
       </c>
       <c r="M14">
-        <v>1.029262299893468</v>
+        <v>1.034639664740062</v>
       </c>
       <c r="N14">
-        <v>1.021193795799896</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.011073865799774</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.035371874497885</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1044,46 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9911961224500799</v>
+        <v>0.9942667350269037</v>
       </c>
       <c r="D15">
-        <v>1.015856372829178</v>
+        <v>1.020129388790231</v>
       </c>
       <c r="E15">
-        <v>1.005822227677103</v>
+        <v>1.01179374825377</v>
       </c>
       <c r="F15">
-        <v>1.01574025880009</v>
+        <v>1.02058908707862</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.046415745957845</v>
+        <v>1.048576659459573</v>
       </c>
       <c r="J15">
-        <v>1.020786458874914</v>
+        <v>1.023727439380085</v>
       </c>
       <c r="K15">
-        <v>1.030415028615622</v>
+        <v>1.034611546205938</v>
       </c>
       <c r="L15">
-        <v>1.020563852171861</v>
+        <v>1.026425915514811</v>
       </c>
       <c r="M15">
-        <v>1.030301005011326</v>
+        <v>1.035063064199756</v>
       </c>
       <c r="N15">
-        <v>1.022236092732359</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.011213300661617</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.035617914586511</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1091,46 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9985243364041795</v>
+        <v>0.9977829349635576</v>
       </c>
       <c r="D16">
-        <v>1.021725856879352</v>
+        <v>1.022601507971572</v>
       </c>
       <c r="E16">
-        <v>1.012246974537879</v>
+        <v>1.014657084967228</v>
       </c>
       <c r="F16">
-        <v>1.022280667807487</v>
+        <v>1.023553692884433</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.04912222656018</v>
+        <v>1.049565366005179</v>
       </c>
       <c r="J16">
-        <v>1.026719651462681</v>
+        <v>1.026007725174705</v>
       </c>
       <c r="K16">
-        <v>1.03567806007469</v>
+        <v>1.036538817845463</v>
       </c>
       <c r="L16">
-        <v>1.026362532744045</v>
+        <v>1.028730733925392</v>
       </c>
       <c r="M16">
-        <v>1.036223430797795</v>
+        <v>1.037474845055244</v>
       </c>
       <c r="N16">
-        <v>1.028177711134148</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.012000283668001</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.036983716532918</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1138,46 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.002993789235169</v>
+        <v>0.9999585098618936</v>
       </c>
       <c r="D17">
-        <v>1.025308366881913</v>
+        <v>1.02413253931729</v>
       </c>
       <c r="E17">
-        <v>1.016167635779313</v>
+        <v>1.016431335028415</v>
       </c>
       <c r="F17">
-        <v>1.026273162013577</v>
+        <v>1.025390547969756</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.050768279955202</v>
+        <v>1.050172969824232</v>
       </c>
       <c r="J17">
-        <v>1.030337404689163</v>
+        <v>1.027418282568026</v>
       </c>
       <c r="K17">
-        <v>1.038886737794054</v>
+        <v>1.037730266954169</v>
       </c>
       <c r="L17">
-        <v>1.029898004275189</v>
+        <v>1.030157269194313</v>
       </c>
       <c r="M17">
-        <v>1.039835692858321</v>
+        <v>1.038967568133946</v>
       </c>
       <c r="N17">
-        <v>1.031800601985173</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.01248709107555</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.037828686338986</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1185,46 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.005557622414127</v>
+        <v>1.001204766281675</v>
       </c>
       <c r="D18">
-        <v>1.027364299603855</v>
+        <v>1.025006303597047</v>
       </c>
       <c r="E18">
-        <v>1.018417386692809</v>
+        <v>1.017446541844673</v>
       </c>
       <c r="F18">
-        <v>1.028564570722219</v>
+        <v>1.02644185004509</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.051710802379227</v>
+        <v>1.050516668519404</v>
       </c>
       <c r="J18">
-        <v>1.032412301255279</v>
+        <v>1.028222336134691</v>
       </c>
       <c r="K18">
-        <v>1.040726834757762</v>
+        <v>1.038406918148353</v>
       </c>
       <c r="L18">
-        <v>1.031925608439122</v>
+        <v>1.030970770574707</v>
       </c>
       <c r="M18">
-        <v>1.041907808646551</v>
+        <v>1.039819255144875</v>
       </c>
       <c r="N18">
-        <v>1.033878445142407</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.012761919922021</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.038295486331182</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1232,46 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.006424753457463</v>
+        <v>1.001637403926892</v>
       </c>
       <c r="D19">
-        <v>1.028059790629158</v>
+        <v>1.025312640063013</v>
       </c>
       <c r="E19">
-        <v>1.019178405709887</v>
+        <v>1.017800731738199</v>
       </c>
       <c r="F19">
-        <v>1.029339754654934</v>
+        <v>1.026808367636925</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.052029284466913</v>
+        <v>1.050637954905059</v>
       </c>
       <c r="J19">
-        <v>1.033113997740678</v>
+        <v>1.02850442812996</v>
       </c>
       <c r="K19">
-        <v>1.041349093055469</v>
+        <v>1.038646014792924</v>
       </c>
       <c r="L19">
-        <v>1.032611293654098</v>
+        <v>1.031256181227093</v>
       </c>
       <c r="M19">
-        <v>1.042608625687041</v>
+        <v>1.040117709029399</v>
       </c>
       <c r="N19">
-        <v>1.034581138117302</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.01286042087192</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.038470910275409</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1279,46 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.002518778851479</v>
+        <v>0.9997252328544585</v>
       </c>
       <c r="D20">
-        <v>1.024927526296822</v>
+        <v>1.023968030424887</v>
       </c>
       <c r="E20">
-        <v>1.015750873574418</v>
+        <v>1.016240832980295</v>
       </c>
       <c r="F20">
-        <v>1.025848718139462</v>
+        <v>1.025193356086098</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.050593515546394</v>
+        <v>1.05010775483877</v>
       </c>
       <c r="J20">
-        <v>1.029952949898883</v>
+        <v>1.027266750424684</v>
       </c>
       <c r="K20">
-        <v>1.038545773481408</v>
+        <v>1.037602128757679</v>
       </c>
       <c r="L20">
-        <v>1.029522303871917</v>
+        <v>1.030003994352745</v>
       </c>
       <c r="M20">
-        <v>1.039451782858881</v>
+        <v>1.038807218439241</v>
       </c>
       <c r="N20">
-        <v>1.031415601224994</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.012434587147057</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.037736756707386</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1326,46 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9892936248996544</v>
+        <v>0.9933722041701486</v>
       </c>
       <c r="D21">
-        <v>1.014333538608227</v>
+        <v>1.019503290657535</v>
       </c>
       <c r="E21">
-        <v>1.004155060252111</v>
+        <v>1.011067492288224</v>
       </c>
       <c r="F21">
-        <v>1.014043484819243</v>
+        <v>1.019836843246346</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.045711686927546</v>
+        <v>1.048325618258814</v>
       </c>
       <c r="J21">
-        <v>1.019245897006594</v>
+        <v>1.023149668412777</v>
       </c>
       <c r="K21">
-        <v>1.029048352558253</v>
+        <v>1.034124354004211</v>
       </c>
       <c r="L21">
-        <v>1.019058139020127</v>
+        <v>1.025842178078814</v>
       </c>
       <c r="M21">
-        <v>1.028763595603582</v>
+        <v>1.034451900221089</v>
       </c>
       <c r="N21">
-        <v>1.020693343089482</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.011015648172873</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.035281093977838</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1373,46 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9805265040412083</v>
+        <v>0.9892594616221549</v>
       </c>
       <c r="D22">
-        <v>1.00732142760182</v>
+        <v>1.01661325698411</v>
       </c>
       <c r="E22">
-        <v>0.9964767878257189</v>
+        <v>1.007724639999507</v>
       </c>
       <c r="F22">
-        <v>1.006230960884412</v>
+        <v>1.016375707989157</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.042460422964048</v>
+        <v>1.047154705630329</v>
       </c>
       <c r="J22">
-        <v>1.012145858201198</v>
+        <v>1.020478414827886</v>
       </c>
       <c r="K22">
-        <v>1.02274922759905</v>
+        <v>1.031862633164225</v>
       </c>
       <c r="L22">
-        <v>1.012118364838481</v>
+        <v>1.023144607891227</v>
       </c>
       <c r="M22">
-        <v>1.021679983636197</v>
+        <v>1.031629592506869</v>
       </c>
       <c r="N22">
-        <v>1.013583221414596</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.010091271092128</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.033668470884845</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1420,46 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9852204033172948</v>
+        <v>0.9914338167228558</v>
       </c>
       <c r="D23">
-        <v>1.011074564000997</v>
+        <v>1.018135940957057</v>
       </c>
       <c r="E23">
-        <v>1.00058680439355</v>
+        <v>1.009488335897376</v>
       </c>
       <c r="F23">
-        <v>1.010412413346039</v>
+        <v>1.018202386204258</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044202484307221</v>
+        <v>1.047771488302555</v>
       </c>
       <c r="J23">
-        <v>1.015947339442891</v>
+        <v>1.021885839538585</v>
       </c>
       <c r="K23">
-        <v>1.026121972604762</v>
+        <v>1.033051787464861</v>
       </c>
       <c r="L23">
-        <v>1.015834103337059</v>
+        <v>1.024565628697229</v>
       </c>
       <c r="M23">
-        <v>1.025472281821396</v>
+        <v>1.033117006050968</v>
       </c>
       <c r="N23">
-        <v>1.017390101195689</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.010574757522501</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.03449961473333</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1467,46 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.002733548208411</v>
+        <v>0.9998048849360082</v>
       </c>
       <c r="D24">
-        <v>1.025099715368394</v>
+        <v>1.024016340026558</v>
       </c>
       <c r="E24">
-        <v>1.015939304591455</v>
+        <v>1.016301532842831</v>
       </c>
       <c r="F24">
-        <v>1.026040620913282</v>
+        <v>1.025256895607482</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.050672538185991</v>
+        <v>1.050124050102509</v>
       </c>
       <c r="J24">
-        <v>1.030126776971384</v>
+        <v>1.027310447722932</v>
       </c>
       <c r="K24">
-        <v>1.038699937375943</v>
+        <v>1.037634431845744</v>
       </c>
       <c r="L24">
-        <v>1.029692173059597</v>
+        <v>1.030048297850276</v>
       </c>
       <c r="M24">
-        <v>1.039625362467071</v>
+        <v>1.038854529030103</v>
       </c>
       <c r="N24">
-        <v>1.031589675151876</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.012444136714211</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.037732259718825</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.021384081251976</v>
+        <v>1.00910872758261</v>
       </c>
       <c r="D25">
-        <v>1.040068292910301</v>
+        <v>1.0305697196853</v>
       </c>
       <c r="E25">
-        <v>1.032315684430876</v>
+        <v>1.023908668511283</v>
       </c>
       <c r="F25">
-        <v>1.042727612253604</v>
+        <v>1.033131236917201</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.05749767692897</v>
+        <v>1.05267962118087</v>
       </c>
       <c r="J25">
-        <v>1.045212611450645</v>
+        <v>1.033333387633559</v>
       </c>
       <c r="K25">
-        <v>1.052074886499749</v>
+        <v>1.042711316031894</v>
       </c>
       <c r="L25">
-        <v>1.044432229562564</v>
+        <v>1.036146833684412</v>
       </c>
       <c r="M25">
-        <v>1.054696965398477</v>
+        <v>1.045236117168811</v>
       </c>
       <c r="N25">
-        <v>1.046696933246468</v>
+        <v>1.014519215590444</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.041318991757585</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_60/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_60/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,46 +439,55 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.016188484332295</v>
+        <v>1.014655949730347</v>
       </c>
       <c r="D2">
-        <v>1.035553015975587</v>
+        <v>1.033545395963614</v>
       </c>
       <c r="E2">
-        <v>1.029715193747434</v>
+        <v>1.028298074831103</v>
       </c>
       <c r="F2">
-        <v>1.039140419821046</v>
+        <v>1.037410570145823</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.054563630034579</v>
+        <v>1.053544037663707</v>
       </c>
       <c r="J2">
-        <v>1.037895551321537</v>
+        <v>1.036406969034029</v>
       </c>
       <c r="K2">
-        <v>1.046538302351443</v>
+        <v>1.044556364617173</v>
       </c>
       <c r="L2">
-        <v>1.0407755074581</v>
+        <v>1.039376762114125</v>
       </c>
       <c r="M2">
-        <v>1.05008012313424</v>
+        <v>1.048372204509945</v>
       </c>
       <c r="N2">
-        <v>1.016081476877538</v>
+        <v>1.016560794105089</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.043976882266701</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.04258421385278</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.023802825036625</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -480,46 +495,55 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.021197615501015</v>
+        <v>1.019302063138285</v>
       </c>
       <c r="D3">
-        <v>1.039091684626841</v>
+        <v>1.036705366587972</v>
       </c>
       <c r="E3">
-        <v>1.033840895005494</v>
+        <v>1.032089074575938</v>
       </c>
       <c r="F3">
-        <v>1.043408474410202</v>
+        <v>1.041317257914111</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.055873070161192</v>
+        <v>1.054659887502195</v>
       </c>
       <c r="J3">
-        <v>1.041126631451526</v>
+        <v>1.039280016050789</v>
       </c>
       <c r="K3">
-        <v>1.049247668040789</v>
+        <v>1.046889186070551</v>
       </c>
       <c r="L3">
-        <v>1.04405833823893</v>
+        <v>1.042327194951406</v>
       </c>
       <c r="M3">
-        <v>1.053514502615523</v>
+        <v>1.0514474224063</v>
       </c>
       <c r="N3">
-        <v>1.017192732344124</v>
+        <v>1.017342038436682</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.045889970510787</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.044230775529603</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.024325381311288</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -527,46 +551,55 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.024371457141378</v>
+        <v>1.022248925297983</v>
       </c>
       <c r="D4">
-        <v>1.041335908765133</v>
+        <v>1.03871163071534</v>
       </c>
       <c r="E4">
-        <v>1.036460911544774</v>
+        <v>1.034499487385033</v>
       </c>
       <c r="F4">
-        <v>1.046118348234319</v>
+        <v>1.04380059264674</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.056688789313076</v>
+        <v>1.055353718854928</v>
       </c>
       <c r="J4">
-        <v>1.043171636775156</v>
+        <v>1.041100130216427</v>
       </c>
       <c r="K4">
-        <v>1.050959785482911</v>
+        <v>1.048364254826539</v>
       </c>
       <c r="L4">
-        <v>1.046138333467816</v>
+        <v>1.044198627951856</v>
       </c>
       <c r="M4">
-        <v>1.05569029106146</v>
+        <v>1.053397631738613</v>
       </c>
       <c r="N4">
-        <v>1.017895949347126</v>
+        <v>1.017837031356507</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.047101454151108</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.045274729370129</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.024653378372726</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,46 +607,55 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.025695212660325</v>
+        <v>1.02347848996854</v>
       </c>
       <c r="D5">
-        <v>1.042274101628514</v>
+        <v>1.039550958187526</v>
       </c>
       <c r="E5">
-        <v>1.037555814442951</v>
+        <v>1.035507316021181</v>
       </c>
       <c r="F5">
-        <v>1.047250668028557</v>
+        <v>1.044838826980743</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.057027003890792</v>
+        <v>1.05564123619605</v>
       </c>
       <c r="J5">
-        <v>1.044025655123235</v>
+        <v>1.041860603756713</v>
       </c>
       <c r="K5">
-        <v>1.051675246239779</v>
+        <v>1.048981131514972</v>
       </c>
       <c r="L5">
-        <v>1.04700737451432</v>
+        <v>1.044980939890549</v>
       </c>
       <c r="M5">
-        <v>1.056599239276312</v>
+        <v>1.054212800866398</v>
       </c>
       <c r="N5">
-        <v>1.018190527721934</v>
+        <v>1.01804451317087</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.047614434859655</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.045718719217861</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.024790564237286</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,46 +663,55 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.025922653562948</v>
+        <v>1.023689540948354</v>
       </c>
       <c r="D6">
-        <v>1.042437414800786</v>
+        <v>1.039697229972142</v>
       </c>
       <c r="E6">
-        <v>1.037744941001392</v>
+        <v>1.035681256187576</v>
       </c>
       <c r="F6">
-        <v>1.047446245879568</v>
+        <v>1.045018090693192</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.057086617352349</v>
+        <v>1.055692109453887</v>
       </c>
       <c r="J6">
-        <v>1.044174368264453</v>
+        <v>1.041993036733247</v>
       </c>
       <c r="K6">
-        <v>1.051801152649759</v>
+        <v>1.049090043026953</v>
       </c>
       <c r="L6">
-        <v>1.047158583868204</v>
+        <v>1.045117022012677</v>
       </c>
       <c r="M6">
-        <v>1.05675731709543</v>
+        <v>1.054354616291309</v>
       </c>
       <c r="N6">
-        <v>1.018242964621706</v>
+        <v>1.018081439468466</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.047712114607441</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.04580525689243</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.024815484533551</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -668,46 +719,55 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.024405558565596</v>
+        <v>1.022291746959429</v>
       </c>
       <c r="D7">
-        <v>1.041365662467212</v>
+        <v>1.038747127843578</v>
       </c>
       <c r="E7">
-        <v>1.036491617368286</v>
+        <v>1.034537981930821</v>
       </c>
       <c r="F7">
-        <v>1.046150060436209</v>
+        <v>1.043839436875725</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.056702076087062</v>
+        <v>1.055369921657515</v>
       </c>
       <c r="J7">
-        <v>1.043199050538357</v>
+        <v>1.04113603097608</v>
       </c>
       <c r="K7">
-        <v>1.050986371563074</v>
+        <v>1.048396509668702</v>
       </c>
       <c r="L7">
-        <v>1.046165839577824</v>
+        <v>1.04423382756103</v>
       </c>
       <c r="M7">
-        <v>1.055718835386139</v>
+        <v>1.053433220485518</v>
       </c>
       <c r="N7">
-        <v>1.017908523208294</v>
+        <v>1.01787560454403</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.047140166910565</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.045319461755234</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.024663491396379</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -715,46 +775,55 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.017916252841121</v>
+        <v>1.016293454410196</v>
       </c>
       <c r="D8">
-        <v>1.036779955553114</v>
+        <v>1.034667348150638</v>
       </c>
       <c r="E8">
-        <v>1.031140228985278</v>
+        <v>1.02963945864676</v>
       </c>
       <c r="F8">
-        <v>1.040614536185921</v>
+        <v>1.038789985722158</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.055023665831972</v>
+        <v>1.053950376920481</v>
       </c>
       <c r="J8">
-        <v>1.039017207077375</v>
+        <v>1.037439348928501</v>
       </c>
       <c r="K8">
-        <v>1.047483741593926</v>
+        <v>1.0453973437683</v>
       </c>
       <c r="L8">
-        <v>1.041914281395799</v>
+        <v>1.040432371169678</v>
       </c>
       <c r="M8">
-        <v>1.051271087573011</v>
+        <v>1.049468957945019</v>
       </c>
       <c r="N8">
-        <v>1.016471373938729</v>
+        <v>1.016925524411889</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.044668105786563</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.04320385277965</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.023997194192731</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -762,46 +831,55 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.005908844277714</v>
+        <v>1.005182689882309</v>
       </c>
       <c r="D9">
-        <v>1.02830572561378</v>
+        <v>1.027118308446252</v>
       </c>
       <c r="E9">
-        <v>1.021283893485829</v>
+        <v>1.020607569601139</v>
       </c>
       <c r="F9">
-        <v>1.030415118971802</v>
+        <v>1.029478196901508</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.051802124951301</v>
+        <v>1.051200299891969</v>
       </c>
       <c r="J9">
-        <v>1.031254657704076</v>
+        <v>1.030553752129867</v>
       </c>
       <c r="K9">
-        <v>1.040955668345667</v>
+        <v>1.039786215100655</v>
       </c>
       <c r="L9">
-        <v>1.03404084097064</v>
+        <v>1.033374922724446</v>
       </c>
       <c r="M9">
-        <v>1.043033279576963</v>
+        <v>1.042110453594614</v>
       </c>
       <c r="N9">
-        <v>1.013797639655239</v>
+        <v>1.015061479569206</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.040049207624225</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.039233026542298</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.022724942009745</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -809,93 +887,111 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9974978207731742</v>
+        <v>0.9974760320970832</v>
       </c>
       <c r="D10">
-        <v>1.022389481792463</v>
+        <v>1.021903701231581</v>
       </c>
       <c r="E10">
-        <v>1.014418281803506</v>
+        <v>1.014386422224646</v>
       </c>
       <c r="F10">
-        <v>1.023307560837864</v>
+        <v>1.023056228435571</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.049476833472444</v>
+        <v>1.049231004663463</v>
       </c>
       <c r="J10">
-        <v>1.025811066899626</v>
+        <v>1.025790148884616</v>
       </c>
       <c r="K10">
-        <v>1.036365921301806</v>
+        <v>1.035888427598318</v>
       </c>
       <c r="L10">
-        <v>1.028531999730957</v>
+        <v>1.028500694435298</v>
       </c>
       <c r="M10">
-        <v>1.037268366717317</v>
+        <v>1.037021310560174</v>
       </c>
       <c r="N10">
-        <v>1.011924115788083</v>
+        <v>1.013888799002235</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.036820734121441</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.036495508557227</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.021833920307235</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9937689755514031</v>
+        <v>0.9941527024832623</v>
       </c>
       <c r="D11">
-        <v>1.01977841213469</v>
+        <v>1.019671540603087</v>
       </c>
       <c r="E11">
-        <v>1.011388105100432</v>
+        <v>1.011726841303439</v>
       </c>
       <c r="F11">
-        <v>1.020169211424767</v>
+        <v>1.020301802843337</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.048435111518931</v>
+        <v>1.048381065235927</v>
       </c>
       <c r="J11">
-        <v>1.023403289680952</v>
+        <v>1.023770775420963</v>
       </c>
       <c r="K11">
-        <v>1.034336732957154</v>
+        <v>1.034231776858921</v>
       </c>
       <c r="L11">
-        <v>1.026098407213081</v>
+        <v>1.026430943998719</v>
       </c>
       <c r="M11">
-        <v>1.034720532481164</v>
+        <v>1.034850750582792</v>
       </c>
       <c r="N11">
-        <v>1.011100487995297</v>
+        <v>1.013583003798606</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.035418811178463</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.035360211983322</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.021462608720064</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,46 +999,55 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9923547667539624</v>
+        <v>0.9929023036121363</v>
       </c>
       <c r="D12">
-        <v>1.018785399315952</v>
+        <v>1.018829376970873</v>
       </c>
       <c r="E12">
-        <v>1.010238384264732</v>
+        <v>1.010727041918751</v>
       </c>
       <c r="F12">
-        <v>1.018978710927511</v>
+        <v>1.019265564831245</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.048034988980562</v>
+        <v>1.04805722354825</v>
       </c>
       <c r="J12">
-        <v>1.022486248322688</v>
+        <v>1.023010118206422</v>
       </c>
       <c r="K12">
-        <v>1.033561338261885</v>
+        <v>1.033604513376814</v>
       </c>
       <c r="L12">
-        <v>1.025172027002769</v>
+        <v>1.025651574477692</v>
       </c>
       <c r="M12">
-        <v>1.033751122838958</v>
+        <v>1.034032746206955</v>
       </c>
       <c r="N12">
-        <v>1.01078417258575</v>
+        <v>1.013483150495539</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.03487058236172</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.034916725922927</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.021321041916623</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -950,46 +1055,55 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9926565623049636</v>
+        <v>0.9931688426108819</v>
       </c>
       <c r="D13">
-        <v>1.018996566075681</v>
+        <v>1.019008097647923</v>
       </c>
       <c r="E13">
-        <v>1.010483258706274</v>
+        <v>1.010939672473726</v>
       </c>
       <c r="F13">
-        <v>1.01923235305512</v>
+        <v>1.019486021780188</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.048119953728805</v>
+        <v>1.048125784259433</v>
       </c>
       <c r="J13">
-        <v>1.022681223224776</v>
+        <v>1.023171459681047</v>
       </c>
       <c r="K13">
-        <v>1.033725808674514</v>
+        <v>1.033737130617057</v>
       </c>
       <c r="L13">
-        <v>1.025368965737937</v>
+        <v>1.025816903975927</v>
       </c>
       <c r="M13">
-        <v>1.033957310565653</v>
+        <v>1.034206372106776</v>
       </c>
       <c r="N13">
-        <v>1.010850896869948</v>
+        <v>1.013502994992302</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.034984375480448</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.03500775401189</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.021350673660738</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,46 +1111,55 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9936514314313912</v>
+        <v>0.9940486312597766</v>
       </c>
       <c r="D14">
-        <v>1.019695556777632</v>
+        <v>1.019601103791415</v>
       </c>
       <c r="E14">
-        <v>1.011292338714025</v>
+        <v>1.011643415108626</v>
       </c>
       <c r="F14">
-        <v>1.020070082709359</v>
+        <v>1.020215369756475</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.048401676473668</v>
+        <v>1.048353911382853</v>
       </c>
       <c r="J14">
-        <v>1.023326759481319</v>
+        <v>1.023707118461709</v>
       </c>
       <c r="K14">
-        <v>1.034271857407549</v>
+        <v>1.034179099820588</v>
       </c>
       <c r="L14">
-        <v>1.026021088301569</v>
+        <v>1.026365729542755</v>
       </c>
       <c r="M14">
-        <v>1.034639664740062</v>
+        <v>1.034782347216148</v>
       </c>
       <c r="N14">
-        <v>1.011073865799774</v>
+        <v>1.013574050095955</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.035371874497885</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.035321797130038</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.02145059157324</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1044,46 +1167,55 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9942667350269037</v>
+        <v>0.9945937781008588</v>
       </c>
       <c r="D15">
-        <v>1.020129388790231</v>
+        <v>1.019970203944099</v>
       </c>
       <c r="E15">
-        <v>1.01179374825377</v>
+        <v>1.012080568471358</v>
       </c>
       <c r="F15">
-        <v>1.02058908707862</v>
+        <v>1.020668239333959</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.048576659459573</v>
+        <v>1.04849615069019</v>
       </c>
       <c r="J15">
-        <v>1.023727439380085</v>
+        <v>1.02404074281031</v>
       </c>
       <c r="K15">
-        <v>1.034611546205938</v>
+        <v>1.034455196272599</v>
       </c>
       <c r="L15">
-        <v>1.026425915514811</v>
+        <v>1.026707520650359</v>
       </c>
       <c r="M15">
-        <v>1.035063064199756</v>
+        <v>1.035140808912096</v>
       </c>
       <c r="N15">
-        <v>1.011213300661617</v>
+        <v>1.013621749193175</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.035617914586511</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.035523441397326</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.021513624573956</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1091,46 +1223,55 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9977829349635576</v>
+        <v>0.9977300957868733</v>
       </c>
       <c r="D16">
-        <v>1.022601507971572</v>
+        <v>1.022087339593518</v>
       </c>
       <c r="E16">
-        <v>1.014657084967228</v>
+        <v>1.014596436940233</v>
       </c>
       <c r="F16">
-        <v>1.023553692884433</v>
+        <v>1.023273072973596</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.049565366005179</v>
+        <v>1.04930515964502</v>
       </c>
       <c r="J16">
-        <v>1.026007725174705</v>
+        <v>1.025956989040627</v>
       </c>
       <c r="K16">
-        <v>1.036538817845463</v>
+        <v>1.036033390595006</v>
       </c>
       <c r="L16">
-        <v>1.028730733925392</v>
+        <v>1.028671137342657</v>
       </c>
       <c r="M16">
-        <v>1.037474845055244</v>
+        <v>1.037198982972563</v>
       </c>
       <c r="N16">
-        <v>1.012000283668001</v>
+        <v>1.013926706444638</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.036983716532918</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.036642722434774</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.021871367562794</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1138,46 +1279,55 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9999585098618936</v>
+        <v>0.9996898524379175</v>
       </c>
       <c r="D17">
-        <v>1.02413253931729</v>
+        <v>1.023412689106822</v>
       </c>
       <c r="E17">
-        <v>1.016431335028415</v>
+        <v>1.016173303075221</v>
       </c>
       <c r="F17">
-        <v>1.025390547969756</v>
+        <v>1.024903868015624</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.050172969824232</v>
+        <v>1.04980853038817</v>
       </c>
       <c r="J17">
-        <v>1.027418282568026</v>
+        <v>1.02715995437878</v>
       </c>
       <c r="K17">
-        <v>1.037730266954169</v>
+        <v>1.037022295318375</v>
       </c>
       <c r="L17">
-        <v>1.030157269194313</v>
+        <v>1.029903576239429</v>
       </c>
       <c r="M17">
-        <v>1.038967568133946</v>
+        <v>1.038488891428416</v>
       </c>
       <c r="N17">
-        <v>1.01248709107555</v>
+        <v>1.014155980091881</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.037828686338986</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.037344727419924</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.022096398653638</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1185,46 +1335,55 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.001204766281675</v>
+        <v>1.000820467992989</v>
       </c>
       <c r="D18">
-        <v>1.025006303597047</v>
+        <v>1.02417421583704</v>
       </c>
       <c r="E18">
-        <v>1.017446541844673</v>
+        <v>1.017082834972669</v>
       </c>
       <c r="F18">
-        <v>1.02644185004509</v>
+        <v>1.025843934343289</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.050516668519404</v>
+        <v>1.05009530980635</v>
       </c>
       <c r="J18">
-        <v>1.028222336134691</v>
+        <v>1.02785251482929</v>
       </c>
       <c r="K18">
-        <v>1.038406918148353</v>
+        <v>1.037588321567612</v>
       </c>
       <c r="L18">
-        <v>1.030970770574707</v>
+        <v>1.030613070512833</v>
       </c>
       <c r="M18">
-        <v>1.039819255144875</v>
+        <v>1.039230996218885</v>
       </c>
       <c r="N18">
-        <v>1.012761919922021</v>
+        <v>1.014300185542462</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.038295486331182</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.037732171055994</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.022224053700977</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1232,46 +1391,55 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.001637403926892</v>
+        <v>1.00121379340695</v>
       </c>
       <c r="D19">
-        <v>1.025312640063013</v>
+        <v>1.024442335988328</v>
       </c>
       <c r="E19">
-        <v>1.017800731738199</v>
+        <v>1.017401006096466</v>
       </c>
       <c r="F19">
-        <v>1.026808367636925</v>
+        <v>1.026172575589513</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.050637954905059</v>
+        <v>1.05019720926109</v>
       </c>
       <c r="J19">
-        <v>1.02850442812996</v>
+        <v>1.02809666382062</v>
       </c>
       <c r="K19">
-        <v>1.038646014792924</v>
+        <v>1.037789736205434</v>
       </c>
       <c r="L19">
-        <v>1.031256181227093</v>
+        <v>1.030863016418389</v>
       </c>
       <c r="M19">
-        <v>1.040117709029399</v>
+        <v>1.039492121901524</v>
       </c>
       <c r="N19">
-        <v>1.01286042087192</v>
+        <v>1.014355498614016</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.038470910275409</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.037881573978054</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.022270684961569</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,46 +1447,55 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9997252328544585</v>
+        <v>0.9994789949472677</v>
       </c>
       <c r="D20">
-        <v>1.023968030424887</v>
+        <v>1.023269697990869</v>
       </c>
       <c r="E20">
-        <v>1.016240832980295</v>
+        <v>1.016003316682916</v>
       </c>
       <c r="F20">
-        <v>1.025193356086098</v>
+        <v>1.024728149844195</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.05010775483877</v>
+        <v>1.049754224175147</v>
       </c>
       <c r="J20">
-        <v>1.027266750424684</v>
+        <v>1.027030015249301</v>
       </c>
       <c r="K20">
-        <v>1.037602128757679</v>
+        <v>1.03691535703753</v>
       </c>
       <c r="L20">
-        <v>1.030003994352745</v>
+        <v>1.02977048527497</v>
       </c>
       <c r="M20">
-        <v>1.038807218439241</v>
+        <v>1.038349687641321</v>
       </c>
       <c r="N20">
-        <v>1.012434587147057</v>
+        <v>1.014129499944542</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.037736756707386</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.037267658035632</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.022071916965573</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1326,46 +1503,55 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9933722041701486</v>
+        <v>0.9938313653118876</v>
       </c>
       <c r="D21">
-        <v>1.019503290657535</v>
+        <v>1.019460496025544</v>
       </c>
       <c r="E21">
-        <v>1.011067492288224</v>
+        <v>1.011475416425288</v>
       </c>
       <c r="F21">
-        <v>1.019836843246346</v>
+        <v>1.020038211877021</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.048325618258814</v>
+        <v>1.048303977999675</v>
       </c>
       <c r="J21">
-        <v>1.023149668412777</v>
+        <v>1.023589277966089</v>
       </c>
       <c r="K21">
-        <v>1.034124354004211</v>
+        <v>1.034082330356523</v>
       </c>
       <c r="L21">
-        <v>1.025842178078814</v>
+        <v>1.026242596786701</v>
       </c>
       <c r="M21">
-        <v>1.034451900221089</v>
+        <v>1.034649645223385</v>
       </c>
       <c r="N21">
-        <v>1.011015648172873</v>
+        <v>1.013629697687478</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.035281093977838</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.03526819791233</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.02143301844519</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,46 +1559,55 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9892594616221549</v>
+        <v>0.9901799302263777</v>
       </c>
       <c r="D22">
-        <v>1.01661325698411</v>
+        <v>1.016998063035651</v>
       </c>
       <c r="E22">
-        <v>1.007724639999507</v>
+        <v>1.008554958900205</v>
       </c>
       <c r="F22">
-        <v>1.016375707989157</v>
+        <v>1.017012873047313</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.047154705630329</v>
+        <v>1.047349155214485</v>
       </c>
       <c r="J22">
-        <v>1.020478414827886</v>
+        <v>1.02135726990836</v>
       </c>
       <c r="K22">
-        <v>1.031862633164225</v>
+        <v>1.032240141994053</v>
       </c>
       <c r="L22">
-        <v>1.023144607891227</v>
+        <v>1.023958824308068</v>
       </c>
       <c r="M22">
-        <v>1.031629592506869</v>
+        <v>1.032254671302169</v>
       </c>
       <c r="N22">
-        <v>1.010091271092128</v>
+        <v>1.013291872518201</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.033668470884845</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.033950916785564</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.021013659353851</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1420,46 +1615,55 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9914338167228558</v>
+        <v>0.9920907751252928</v>
       </c>
       <c r="D23">
-        <v>1.018135940957057</v>
+        <v>1.018280035523626</v>
       </c>
       <c r="E23">
-        <v>1.009488335897376</v>
+        <v>1.010077315989467</v>
       </c>
       <c r="F23">
-        <v>1.018202386204258</v>
+        <v>1.018592091154788</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.047771488302555</v>
+        <v>1.04784432923419</v>
       </c>
       <c r="J23">
-        <v>1.021885839538585</v>
+        <v>1.022514018314864</v>
       </c>
       <c r="K23">
-        <v>1.033051787464861</v>
+        <v>1.033193222132657</v>
       </c>
       <c r="L23">
-        <v>1.024565628697229</v>
+        <v>1.025143498217957</v>
       </c>
       <c r="M23">
-        <v>1.033117006050968</v>
+        <v>1.033499520766965</v>
       </c>
       <c r="N23">
-        <v>1.010574757522501</v>
+        <v>1.013419700846114</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.03449961473333</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.034614199745041</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.021227119602633</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1467,46 +1671,55 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9998048849360082</v>
+        <v>0.9995521964946547</v>
       </c>
       <c r="D24">
-        <v>1.024016340026558</v>
+        <v>1.023311136811963</v>
       </c>
       <c r="E24">
-        <v>1.016301532842831</v>
+        <v>1.016058359549751</v>
       </c>
       <c r="F24">
-        <v>1.025256895607482</v>
+        <v>1.024785316309322</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.050124050102509</v>
+        <v>1.049767034641741</v>
       </c>
       <c r="J24">
-        <v>1.027310447722932</v>
+        <v>1.027067495150268</v>
       </c>
       <c r="K24">
-        <v>1.037634431845744</v>
+        <v>1.0369408868235</v>
       </c>
       <c r="L24">
-        <v>1.030048297850276</v>
+        <v>1.029809221350823</v>
       </c>
       <c r="M24">
-        <v>1.038854529030103</v>
+        <v>1.038390719188149</v>
       </c>
       <c r="N24">
-        <v>1.012444136714211</v>
+        <v>1.014131867646668</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.037732259718825</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.037255697700199</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.022074700660134</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1514,43 +1727,52 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.00910872758261</v>
+        <v>1.008124031778718</v>
       </c>
       <c r="D25">
-        <v>1.0305697196853</v>
+        <v>1.029122257543255</v>
       </c>
       <c r="E25">
-        <v>1.023908668511283</v>
+        <v>1.022994933223355</v>
       </c>
       <c r="F25">
-        <v>1.033131236917201</v>
+        <v>1.031941337350603</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.05267962118087</v>
+        <v>1.051945549453015</v>
       </c>
       <c r="J25">
-        <v>1.033333387633559</v>
+        <v>1.032381049259291</v>
       </c>
       <c r="K25">
-        <v>1.042711316031894</v>
+        <v>1.041284703821853</v>
       </c>
       <c r="L25">
-        <v>1.036146833684412</v>
+        <v>1.035246469794857</v>
       </c>
       <c r="M25">
-        <v>1.045236117168811</v>
+        <v>1.044063244599907</v>
       </c>
       <c r="N25">
-        <v>1.014519215590444</v>
+        <v>1.015528291289756</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.041318991757585</v>
+        <v>1.040323789835693</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.023068880288668</v>
       </c>
     </row>
   </sheetData>
